--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1b-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H2">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I2">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J2">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N2">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O2">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P2">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q2">
-        <v>0.08288266609050002</v>
+        <v>0.0414341970845</v>
       </c>
       <c r="R2">
-        <v>0.3315306643620001</v>
+        <v>0.165736788338</v>
       </c>
       <c r="S2">
-        <v>1.05100597050441E-05</v>
+        <v>1.487965045810102E-08</v>
       </c>
       <c r="T2">
-        <v>4.720906479902027E-06</v>
+        <v>6.615531171931661E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H3">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I3">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J3">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.310756</v>
       </c>
       <c r="O3">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P3">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q3">
-        <v>0.476106620022</v>
+        <v>0.243536223018</v>
       </c>
       <c r="R3">
-        <v>2.856639720132</v>
+        <v>1.461217338108</v>
       </c>
       <c r="S3">
-        <v>6.037340783577318E-05</v>
+        <v>8.745756228855631E-08</v>
       </c>
       <c r="T3">
-        <v>4.067777257186477E-05</v>
+        <v>5.832578841522114E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H4">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I4">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J4">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N4">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O4">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P4">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q4">
-        <v>2.778636048780001</v>
+        <v>3.320620479386834</v>
       </c>
       <c r="R4">
-        <v>16.67181629268</v>
+        <v>19.923722876321</v>
       </c>
       <c r="S4">
-        <v>0.0003523490754915875</v>
+        <v>1.192485326468929E-06</v>
       </c>
       <c r="T4">
-        <v>0.0002374021290588964</v>
+        <v>7.952731018319674E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H5">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I5">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J5">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N5">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O5">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P5">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q5">
-        <v>0.08135436623925001</v>
+        <v>0.049330938756</v>
       </c>
       <c r="R5">
-        <v>0.325417464957</v>
+        <v>0.197323755024</v>
       </c>
       <c r="S5">
-        <v>1.031626137010264E-05</v>
+        <v>1.771549051529369E-08</v>
       </c>
       <c r="T5">
-        <v>4.63385618324384E-06</v>
+        <v>7.87635301380205E-09</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H6">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I6">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J6">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N6">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O6">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P6">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q6">
-        <v>0.04163340709900001</v>
+        <v>86.6161759901735</v>
       </c>
       <c r="R6">
-        <v>0.249800442594</v>
+        <v>519.6970559410411</v>
       </c>
       <c r="S6">
-        <v>5.279386088486975E-06</v>
+        <v>3.110518637836171E-05</v>
       </c>
       <c r="T6">
-        <v>3.557090353599213E-06</v>
+        <v>2.074416976469666E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H7">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I7">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J7">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N7">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O7">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P7">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q7">
-        <v>1.8440401009295</v>
+        <v>0.8597751924043334</v>
       </c>
       <c r="R7">
-        <v>11.064240605577</v>
+        <v>5.158651154426</v>
       </c>
       <c r="S7">
-        <v>0.0002338362467503447</v>
+        <v>3.087583502446772E-07</v>
       </c>
       <c r="T7">
-        <v>0.0001575517766073965</v>
+        <v>2.059121445483072E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H8">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I8">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J8">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N8">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O8">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P8">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q8">
-        <v>57.348671059234</v>
+        <v>130.0479694056653</v>
       </c>
       <c r="R8">
-        <v>344.092026355404</v>
+        <v>780.287816433992</v>
       </c>
       <c r="S8">
-        <v>0.007272183500701477</v>
+        <v>4.670220406578121E-05</v>
       </c>
       <c r="T8">
-        <v>0.00489977685783577</v>
+        <v>3.114588151768849E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H9">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I9">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J9">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>5.310756</v>
       </c>
       <c r="O9">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P9">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q9">
-        <v>329.430545959416</v>
+        <v>764.378062295408</v>
       </c>
       <c r="R9">
-        <v>2964.874913634744</v>
+        <v>6879.402560658672</v>
       </c>
       <c r="S9">
-        <v>0.04177393018364292</v>
+        <v>0.00027449978966893</v>
       </c>
       <c r="T9">
-        <v>0.04221901228597647</v>
+        <v>0.0002745974659017163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H10">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I10">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J10">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N10">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O10">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P10">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q10">
-        <v>1922.61050797784</v>
+        <v>10422.30768054802</v>
       </c>
       <c r="R10">
-        <v>17303.49457180056</v>
+        <v>93800.76912493218</v>
       </c>
       <c r="S10">
-        <v>0.2437994840360034</v>
+        <v>0.003742809229223599</v>
       </c>
       <c r="T10">
-        <v>0.2463970559289413</v>
+        <v>0.003744141046293439</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H11">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I11">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J11">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N11">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O11">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P11">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q11">
-        <v>56.291200666649</v>
+        <v>154.833178039136</v>
       </c>
       <c r="R11">
-        <v>337.747203999894</v>
+        <v>928.9990682348161</v>
       </c>
       <c r="S11">
-        <v>0.007138089395303741</v>
+        <v>5.56029495115066E-05</v>
       </c>
       <c r="T11">
-        <v>0.004809428313366748</v>
+        <v>3.708182327069858E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H12">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I12">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J12">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N12">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O12">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P12">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q12">
-        <v>28.80723656003867</v>
+        <v>271858.9618675059</v>
       </c>
       <c r="R12">
-        <v>259.265129040348</v>
+        <v>2446730.656807553</v>
       </c>
       <c r="S12">
-        <v>0.003652944463112999</v>
+        <v>0.0976286886467494</v>
       </c>
       <c r="T12">
-        <v>0.003691864914078532</v>
+        <v>0.09766342820895596</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H13">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I13">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J13">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N13">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O13">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P13">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q13">
-        <v>1275.939278458659</v>
+        <v>2698.544337410998</v>
       </c>
       <c r="R13">
-        <v>11483.45350612793</v>
+        <v>24286.89903669899</v>
       </c>
       <c r="S13">
-        <v>0.161797377294412</v>
+        <v>0.0009690883210425321</v>
       </c>
       <c r="T13">
-        <v>0.1635212542799308</v>
+        <v>0.0009694331551735558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H14">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I14">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J14">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N14">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O14">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P14">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q14">
-        <v>0.4136853744643335</v>
+        <v>0.04865701719899999</v>
       </c>
       <c r="R14">
-        <v>2.482112246786</v>
+        <v>0.194628068796</v>
       </c>
       <c r="S14">
-        <v>5.245798898380297E-05</v>
+        <v>1.747347503267461E-08</v>
       </c>
       <c r="T14">
-        <v>3.53446032277167E-05</v>
+        <v>7.768752302759477E-09</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H15">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I15">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J15">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.310756</v>
       </c>
       <c r="O15">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P15">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q15">
-        <v>2.376351469844</v>
+        <v>0.285989521356</v>
       </c>
       <c r="R15">
-        <v>21.387163228596</v>
+        <v>1.715937128136</v>
       </c>
       <c r="S15">
-        <v>0.0003013367813356626</v>
+        <v>1.027031875090636E-07</v>
       </c>
       <c r="T15">
-        <v>0.000304547386791211</v>
+        <v>6.849315516545373E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H16">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I16">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J16">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N16">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O16">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P16">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q16">
-        <v>13.86877556622667</v>
+        <v>3.899471913197</v>
       </c>
       <c r="R16">
-        <v>124.81898009604</v>
+        <v>23.396831479182</v>
       </c>
       <c r="S16">
-        <v>0.001758650706020257</v>
+        <v>1.40035968167124E-06</v>
       </c>
       <c r="T16">
-        <v>0.00177738832419659</v>
+        <v>9.339053177457527E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H17">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I17">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J17">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N17">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O17">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P17">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q17">
-        <v>0.4060572982201667</v>
+        <v>0.057930320952</v>
       </c>
       <c r="R17">
-        <v>2.436343789321</v>
+        <v>0.231721283808</v>
       </c>
       <c r="S17">
-        <v>5.149069943410049E-05</v>
+        <v>2.080365947319932E-08</v>
       </c>
       <c r="T17">
-        <v>3.46928728430253E-05</v>
+        <v>9.24936093913901E-09</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H18">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I18">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J18">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N18">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O18">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P18">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q18">
-        <v>0.2078013705202223</v>
+        <v>101.715130530237</v>
       </c>
       <c r="R18">
-        <v>1.870212334682</v>
+        <v>610.2907831814221</v>
       </c>
       <c r="S18">
-        <v>2.635056175163092E-05</v>
+        <v>3.652745063464068E-05</v>
       </c>
       <c r="T18">
-        <v>2.663131492401684E-05</v>
+        <v>2.436029888455122E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H19">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I19">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J19">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.856480333333333</v>
+        <v>6.249660666666666</v>
       </c>
       <c r="N19">
-        <v>20.569441</v>
+        <v>18.748982</v>
       </c>
       <c r="O19">
-        <v>0.3476268906222089</v>
+        <v>0.009434510653792123</v>
       </c>
       <c r="P19">
-        <v>0.3512519201126577</v>
+        <v>0.009437643909673034</v>
       </c>
       <c r="Q19">
-        <v>9.204004355353446</v>
+        <v>1.009651429682</v>
       </c>
       <c r="R19">
-        <v>82.836039198181</v>
+        <v>6.057908578091999</v>
       </c>
       <c r="S19">
-        <v>0.001167127456959765</v>
+        <v>3.625811869251868E-07</v>
       </c>
       <c r="T19">
-        <v>0.001179562665711999</v>
+        <v>2.418068036491037E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H20">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I20">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J20">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.308173</v>
+        <v>0.301183</v>
       </c>
       <c r="N20">
-        <v>0.6163460000000001</v>
+        <v>0.602366</v>
       </c>
       <c r="O20">
-        <v>0.01562452111805829</v>
+        <v>0.0004546669609434378</v>
       </c>
       <c r="P20">
-        <v>0.01052496837195314</v>
+        <v>0.0003032119723243698</v>
       </c>
       <c r="Q20">
-        <v>65.37023283806136</v>
+        <v>1110.425421220108</v>
       </c>
       <c r="R20">
-        <v>392.2213970283681</v>
+        <v>6662.552527320648</v>
       </c>
       <c r="S20">
-        <v>0.008289369568667965</v>
+        <v>0.000398770660231419</v>
       </c>
       <c r="T20">
-        <v>0.005585126004409753</v>
+        <v>0.0002659417041389358</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H21">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I21">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J21">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.310756</v>
       </c>
       <c r="O21">
-        <v>0.08975263815546762</v>
+        <v>0.002672378908982388</v>
       </c>
       <c r="P21">
-        <v>0.09068857254068391</v>
+        <v>0.002673266421566756</v>
       </c>
       <c r="Q21">
-        <v>375.5091634310721</v>
+        <v>6526.705766147952</v>
       </c>
       <c r="R21">
-        <v>3379.582470879648</v>
+        <v>58740.35189533157</v>
       </c>
       <c r="S21">
-        <v>0.04761699778265326</v>
+        <v>0.002343839322989644</v>
       </c>
       <c r="T21">
-        <v>0.04812433509534436</v>
+        <v>0.002344673339640813</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H22">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I22">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J22">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.33148</v>
+        <v>24.13741566666667</v>
       </c>
       <c r="N22">
-        <v>30.99444</v>
+        <v>72.41224700000001</v>
       </c>
       <c r="O22">
-        <v>0.5238110653457534</v>
+        <v>0.03643793117869155</v>
       </c>
       <c r="P22">
-        <v>0.5292733313859411</v>
+        <v>0.03645003242764271</v>
       </c>
       <c r="Q22">
-        <v>2191.532850579947</v>
+        <v>88991.74242511421</v>
       </c>
       <c r="R22">
-        <v>19723.79565521952</v>
+        <v>800925.6818260278</v>
       </c>
       <c r="S22">
-        <v>0.277900581528238</v>
+        <v>0.03195828842158045</v>
       </c>
       <c r="T22">
-        <v>0.2808614850037444</v>
+        <v>0.03196966025258653</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H23">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I23">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J23">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3024905</v>
+        <v>0.358584</v>
       </c>
       <c r="N23">
-        <v>0.604981</v>
+        <v>0.717168</v>
       </c>
       <c r="O23">
-        <v>0.01533641560182758</v>
+        <v>0.0005413197209767541</v>
       </c>
       <c r="P23">
-        <v>0.01033089513135898</v>
+        <v>0.000360999664270433</v>
       </c>
       <c r="Q23">
-        <v>64.16485031557467</v>
+        <v>1322.055990021984</v>
       </c>
       <c r="R23">
-        <v>384.989101893448</v>
+        <v>7932.335940131905</v>
       </c>
       <c r="S23">
-        <v>0.008136519245719634</v>
+        <v>0.0004747704167513544</v>
       </c>
       <c r="T23">
-        <v>0.005482140088965965</v>
+        <v>0.0003166262373273264</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H24">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I24">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J24">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1548006666666667</v>
+        <v>629.608429</v>
       </c>
       <c r="N24">
-        <v>0.464402</v>
+        <v>1888.825287</v>
       </c>
       <c r="O24">
-        <v>0.007848469156684185</v>
+        <v>0.9504591925766137</v>
       </c>
       <c r="P24">
-        <v>0.007930312457405064</v>
+        <v>0.9507748456045226</v>
       </c>
       <c r="Q24">
-        <v>32.83660678737956</v>
+        <v>2321290.394796703</v>
       </c>
       <c r="R24">
-        <v>295.529461086416</v>
+        <v>20891613.55317033</v>
       </c>
       <c r="S24">
-        <v>0.004163894745731067</v>
+        <v>0.8336106915715579</v>
       </c>
       <c r="T24">
-        <v>0.004208259138048917</v>
+        <v>0.8339073182176524</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3686.879476</v>
+      </c>
+      <c r="H25">
+        <v>11060.638428</v>
+      </c>
+      <c r="I25">
+        <v>0.8770610017582243</v>
+      </c>
+      <c r="J25">
+        <v>0.8770818055114159</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.249660666666666</v>
+      </c>
+      <c r="N25">
+        <v>18.748982</v>
+      </c>
+      <c r="O25">
+        <v>0.009434510653792123</v>
+      </c>
+      <c r="P25">
+        <v>0.009437643909673034</v>
+      </c>
+      <c r="Q25">
+        <v>23041.74564389781</v>
+      </c>
+      <c r="R25">
+        <v>207375.7107950803</v>
+      </c>
+      <c r="S25">
+        <v>0.008274641365113558</v>
+      </c>
+      <c r="T25">
+        <v>0.008277585760069843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H26">
+        <v>254.117824</v>
+      </c>
+      <c r="I26">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J26">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.301183</v>
+      </c>
+      <c r="N26">
+        <v>0.602366</v>
+      </c>
+      <c r="O26">
+        <v>0.0004546669609434378</v>
+      </c>
+      <c r="P26">
+        <v>0.0003032119723243698</v>
+      </c>
+      <c r="Q26">
+        <v>25.51198952859733</v>
+      </c>
+      <c r="R26">
+        <v>153.071937171584</v>
+      </c>
+      <c r="S26">
+        <v>9.161743520746752E-06</v>
+      </c>
+      <c r="T26">
+        <v>6.110002384270881E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H27">
+        <v>254.117824</v>
+      </c>
+      <c r="I27">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J27">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.770252</v>
+      </c>
+      <c r="N27">
+        <v>5.310756</v>
+      </c>
+      <c r="O27">
+        <v>0.002672378908982388</v>
+      </c>
+      <c r="P27">
+        <v>0.002673266421566756</v>
+      </c>
+      <c r="Q27">
+        <v>149.950862057216</v>
+      </c>
+      <c r="R27">
+        <v>1349.557758514944</v>
+      </c>
+      <c r="S27">
+        <v>5.384963557401639E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.38687970806468E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H28">
+        <v>254.117824</v>
+      </c>
+      <c r="I28">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J28">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>24.13741566666667</v>
+      </c>
+      <c r="N28">
+        <v>72.41224700000001</v>
+      </c>
+      <c r="O28">
+        <v>0.03643793117869155</v>
+      </c>
+      <c r="P28">
+        <v>0.03645003242764271</v>
+      </c>
+      <c r="Q28">
+        <v>2044.582515398948</v>
+      </c>
+      <c r="R28">
+        <v>18401.24263859053</v>
+      </c>
+      <c r="S28">
+        <v>0.0007342406828793606</v>
+      </c>
+      <c r="T28">
+        <v>0.0007345019503431668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H29">
+        <v>254.117824</v>
+      </c>
+      <c r="I29">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J29">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.358584</v>
+      </c>
+      <c r="N29">
+        <v>0.717168</v>
+      </c>
+      <c r="O29">
+        <v>0.0005413197209767541</v>
+      </c>
+      <c r="P29">
+        <v>0.000360999664270433</v>
+      </c>
+      <c r="Q29">
+        <v>30.374195267072</v>
+      </c>
+      <c r="R29">
+        <v>182.245171602432</v>
+      </c>
+      <c r="S29">
+        <v>1.090783556390451E-05</v>
+      </c>
+      <c r="T29">
+        <v>7.274477958455125E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>212.1218693333334</v>
-      </c>
-      <c r="H25">
-        <v>636.3656080000001</v>
-      </c>
-      <c r="I25">
-        <v>0.5305359124950968</v>
-      </c>
-      <c r="J25">
-        <v>0.5306548967209209</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>6.856480333333333</v>
-      </c>
-      <c r="N25">
-        <v>20.569441</v>
-      </c>
-      <c r="O25">
-        <v>0.3476268906222089</v>
-      </c>
-      <c r="P25">
-        <v>0.3512519201126577</v>
-      </c>
-      <c r="Q25">
-        <v>1454.409425353903</v>
-      </c>
-      <c r="R25">
-        <v>13089.68482818513</v>
-      </c>
-      <c r="S25">
-        <v>0.1844285496240868</v>
-      </c>
-      <c r="T25">
-        <v>0.1863935513904075</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H30">
+        <v>254.117824</v>
+      </c>
+      <c r="I30">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J30">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>629.608429</v>
+      </c>
+      <c r="N30">
+        <v>1888.825287</v>
+      </c>
+      <c r="O30">
+        <v>0.9504591925766137</v>
+      </c>
+      <c r="P30">
+        <v>0.9507748456045226</v>
+      </c>
+      <c r="Q30">
+        <v>53331.57464984616</v>
+      </c>
+      <c r="R30">
+        <v>479984.1718486155</v>
+      </c>
+      <c r="S30">
+        <v>0.01915217972129334</v>
+      </c>
+      <c r="T30">
+        <v>0.01915899470926502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H31">
+        <v>254.117824</v>
+      </c>
+      <c r="I31">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J31">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.249660666666666</v>
+      </c>
+      <c r="N31">
+        <v>18.748982</v>
+      </c>
+      <c r="O31">
+        <v>0.009434510653792123</v>
+      </c>
+      <c r="P31">
+        <v>0.009437643909673034</v>
+      </c>
+      <c r="Q31">
+        <v>529.3833897839075</v>
+      </c>
+      <c r="R31">
+        <v>4764.450508055167</v>
+      </c>
+      <c r="S31">
+        <v>0.0001901096280988607</v>
+      </c>
+      <c r="T31">
+        <v>0.0001901772754814379</v>
       </c>
     </row>
   </sheetData>
